--- a/formatted/candidates/0-100/candidates.xlsx
+++ b/formatted/candidates/0-100/candidates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/superyachtcrew.apps/apps/api/private/data/tmp/0-100/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/nj.migration/formatted/candidates/0-100/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C242D4-609B-154B-BAFB-376BFB8017C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00308082-DFAE-D448-9877-79B329815E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="47900" windowHeight="31760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="57060" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1654,18 +1654,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1704,8 +1698,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5846,7 +5840,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/formatted/candidates/0-100/candidates.xlsx
+++ b/formatted/candidates/0-100/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/nj.migration/formatted/candidates/0-100/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00308082-DFAE-D448-9877-79B329815E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112128B4-EFD3-774E-9CAE-90AFFE551AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="57060" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$101</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="534">
   <si>
     <t>gender</t>
   </si>
@@ -1689,7 +1702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1698,8 +1711,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2004,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2017,8 +2029,8 @@
     <col min="8" max="8" width="31.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="44.33203125" customWidth="1"/>
     <col min="10" max="10" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="36.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="36.5" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" customWidth="1"/>
     <col min="14" max="14" width="30.1640625" style="3" customWidth="1"/>
     <col min="15" max="15" width="31.6640625" customWidth="1"/>
@@ -2153,13 +2165,10 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3">
         <v>6</v>
       </c>
       <c r="M3">
@@ -2247,7 +2256,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>64</v>
       </c>
       <c r="M5">
@@ -2294,7 +2303,7 @@
       <c r="I6" t="s">
         <v>457</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6">
         <v>2</v>
       </c>
       <c r="M6">
@@ -2341,7 +2350,7 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7">
         <v>70</v>
       </c>
       <c r="M7">
@@ -2379,16 +2388,13 @@
       <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>470</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8">
         <v>70</v>
       </c>
       <c r="M8">
@@ -2473,16 +2479,13 @@
       <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10">
         <v>21</v>
       </c>
       <c r="M10">
@@ -2523,9 +2526,6 @@
       <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="H18" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18">
         <v>2</v>
       </c>
       <c r="M18">
@@ -2963,7 +2963,7 @@
       <c r="I21" t="s">
         <v>459</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21">
         <v>2</v>
       </c>
       <c r="M21">
@@ -3004,9 +3004,6 @@
       <c r="E22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -3016,7 +3013,7 @@
       <c r="J22" t="s">
         <v>474</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22">
         <v>2</v>
       </c>
       <c r="M22">
@@ -3135,9 +3132,6 @@
       <c r="E26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -3219,13 +3213,10 @@
       <c r="E29" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29">
         <v>2</v>
       </c>
       <c r="M29">
@@ -3263,7 +3254,7 @@
       <c r="H30" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30">
         <v>2</v>
       </c>
       <c r="M30">
@@ -3350,7 +3341,7 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33">
         <v>2</v>
       </c>
       <c r="M33">
@@ -3408,9 +3399,6 @@
       <c r="E35" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="G35">
         <v>0</v>
       </c>
@@ -3582,7 +3570,7 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41">
         <v>2</v>
       </c>
       <c r="M41">
@@ -3614,7 +3602,7 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42">
         <v>70</v>
       </c>
       <c r="M42">
@@ -3646,9 +3634,6 @@
       <c r="E43" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -3687,9 +3672,6 @@
       <c r="E44" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -3722,9 +3704,6 @@
       <c r="E45" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -3734,7 +3713,7 @@
       <c r="J45" t="s">
         <v>478</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45">
         <v>7</v>
       </c>
       <c r="M45">
@@ -3816,7 +3795,7 @@
       <c r="J47" t="s">
         <v>480</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47">
         <v>5</v>
       </c>
       <c r="M47">
@@ -3883,13 +3862,10 @@
       <c r="E49" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49">
         <v>2</v>
       </c>
       <c r="M49">
@@ -3930,7 +3906,7 @@
       <c r="H50" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50">
         <v>32</v>
       </c>
       <c r="M50">
@@ -3962,13 +3938,10 @@
       <c r="E51" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51">
         <v>2</v>
       </c>
       <c r="M51">
@@ -4032,9 +4005,6 @@
       <c r="E53" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G53">
         <v>0</v>
       </c>
@@ -4073,7 +4043,7 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54">
         <v>2</v>
       </c>
       <c r="M54">
@@ -4105,9 +4075,6 @@
       <c r="E55" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="G55">
         <v>0</v>
       </c>
@@ -4149,7 +4116,7 @@
       <c r="H56" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56">
         <v>5</v>
       </c>
       <c r="M56">
@@ -4257,7 +4224,7 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59">
         <v>22</v>
       </c>
       <c r="M59">
@@ -4321,9 +4288,6 @@
       <c r="E61" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="G61">
         <v>0</v>
       </c>
@@ -4394,9 +4358,6 @@
       <c r="E63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="G63">
         <v>0</v>
       </c>
@@ -4508,7 +4469,7 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66">
         <v>2</v>
       </c>
       <c r="M66">
@@ -4581,7 +4542,7 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68">
         <v>6</v>
       </c>
       <c r="M68">
@@ -4619,7 +4580,7 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69">
         <v>39</v>
       </c>
       <c r="M69">
@@ -4657,7 +4618,7 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70">
         <v>6</v>
       </c>
       <c r="M70">
@@ -4765,7 +4726,7 @@
       <c r="H73" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73">
         <v>2</v>
       </c>
       <c r="M73">
@@ -4873,7 +4834,7 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76">
         <v>38</v>
       </c>
       <c r="M76">
@@ -5025,7 +4986,7 @@
       <c r="H80" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80">
         <v>2</v>
       </c>
       <c r="M80">
@@ -5139,7 +5100,7 @@
       <c r="J83" t="s">
         <v>486</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83">
         <v>2</v>
       </c>
       <c r="M83">
@@ -5177,7 +5138,7 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84">
         <v>36</v>
       </c>
       <c r="M84">
@@ -5244,13 +5205,10 @@
       <c r="E86" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86">
         <v>2</v>
       </c>
       <c r="M86">
@@ -5294,7 +5252,7 @@
       <c r="J87" t="s">
         <v>488</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87">
         <v>5</v>
       </c>
       <c r="M87">
@@ -5332,7 +5290,7 @@
       <c r="H88" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88">
         <v>17</v>
       </c>
       <c r="M88">
@@ -5364,9 +5322,6 @@
       <c r="E89" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="G89">
         <v>0</v>
       </c>
@@ -5443,7 +5398,7 @@
       <c r="H91" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91">
         <v>13</v>
       </c>
       <c r="M91">
@@ -5481,7 +5436,7 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92">
         <v>2</v>
       </c>
       <c r="M92">
@@ -5551,7 +5506,7 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="L94" s="5">
+      <c r="L94">
         <v>2</v>
       </c>
       <c r="M94">
@@ -5592,7 +5547,7 @@
       <c r="H95" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="L95" s="5">
+      <c r="L95">
         <v>70</v>
       </c>
       <c r="M95">
@@ -5633,7 +5588,7 @@
       <c r="H96" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96">
         <v>2</v>
       </c>
       <c r="M96">
@@ -5665,16 +5620,13 @@
       <c r="E97" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97">
         <v>70</v>
       </c>
       <c r="M97">
@@ -5712,7 +5664,7 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="L98" s="5">
+      <c r="L98">
         <v>2</v>
       </c>
       <c r="M98">
@@ -5840,6 +5792,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
